--- a/Power BOM.xlsx
+++ b/Power BOM.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikehills/Documents/EEE3088F/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D7329D3-3032-A24D-AD4F-8AA86FE04F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9E5954-3C89-3A4D-BCAA-C56BFBAEB37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="760" windowWidth="20220" windowHeight="14180" xr2:uid="{61962C22-DF36-5E4A-8358-D6458A300B76}"/>
+    <workbookView xWindow="4820" yWindow="760" windowWidth="20220" windowHeight="14180" xr2:uid="{61962C22-DF36-5E4A-8358-D6458A300B76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Item</t>
   </si>
@@ -78,9 +78,6 @@
     <t>100kΩ Resistor</t>
   </si>
   <si>
-    <t>3.3kΩ Resistor</t>
-  </si>
-  <si>
     <t>Switch</t>
   </si>
   <si>
@@ -88,13 +85,29 @@
   </si>
   <si>
     <t>C319028</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>C26010</t>
+  </si>
+  <si>
+    <t>3,3kΩ Resistor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="193" formatCode="[$$-409]#,##0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +117,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -127,14 +147,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,18 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9626224E-7DD0-A747-B102-23469E2CFAD3}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +493,18 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2">
+        <f>SUMPRODUCT(C2:C9,D2:D9)</f>
+        <v>0.2099</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -479,8 +514,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0.13150000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -490,8 +528,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -501,8 +542,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -512,8 +556,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -523,38 +570,50 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
       <c r="C9">
         <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1.52E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Power BOM.xlsx
+++ b/Power BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikehills/Documents/EEE3088F/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9E5954-3C89-3A4D-BCAA-C56BFBAEB37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A46C640-295F-F541-96BF-5297EF26EE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="760" windowWidth="20220" windowHeight="14180" xr2:uid="{61962C22-DF36-5E4A-8358-D6458A300B76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Item</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>3,3kΩ Resistor</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>C2296</t>
   </si>
 </sst>
 </file>
@@ -105,7 +111,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="193" formatCode="[$$-409]#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -154,7 +160,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9626224E-7DD0-A747-B102-23469E2CFAD3}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,8 +506,8 @@
         <v>18</v>
       </c>
       <c r="G1" s="2">
-        <f>SUMPRODUCT(C2:C9,D2:D9)</f>
-        <v>0.2099</v>
+        <f>SUMPRODUCT(C:C,D:D)</f>
+        <v>0.2218</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -614,6 +620,20 @@
       </c>
       <c r="D9">
         <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1.1900000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Power BOM.xlsx
+++ b/Power BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikehills/Documents/EEE3088F/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A46C640-295F-F541-96BF-5297EF26EE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025E793A-159D-904E-9C67-A3F44A07F272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="760" windowWidth="20220" windowHeight="14180" xr2:uid="{61962C22-DF36-5E4A-8358-D6458A300B76}"/>
   </bookViews>
@@ -78,15 +78,9 @@
     <t>100kΩ Resistor</t>
   </si>
   <si>
-    <t>Switch</t>
-  </si>
-  <si>
     <t>C149504</t>
   </si>
   <si>
-    <t>C319028</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>C2296</t>
+  </si>
+  <si>
+    <t>39kΩ Resistor</t>
+  </si>
+  <si>
+    <t>C25826</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,14 +500,14 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2">
         <f>SUMPRODUCT(C:C,D:D)</f>
-        <v>0.2218</v>
+        <v>0.21009999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -585,10 +585,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1.6999999999999999E-3</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -610,24 +610,24 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1.52E-2</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>1</v>
